--- a/InportExcelFiles/商品预售导入.xlsx
+++ b/InportExcelFiles/商品预售导入.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liang\Desktop\InportExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D1958-6F85-4A81-9746-006B22895A18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46239310-9A1B-426B-B0D6-17361D5F4361}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22935" yWindow="7320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>商品款号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,52 @@
   </si>
   <si>
     <t>tesla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售开始时分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售结束时分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售时分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>12:04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -96,18 +142,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,15 +162,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,158 +469,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>43681</v>
       </c>
-      <c r="C2" s="2">
-        <v>43682.87604166667</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11">
+        <v>43682</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11">
         <v>43686</v>
       </c>
-      <c r="E2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>23.02</v>
+      </c>
+      <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1">
-        <v>500</v>
+      <c r="J2" s="1">
+        <v>18.04</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>43681</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43774</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="9">
+        <v>43682</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
+        <v>43683</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11">
         <v>43686</v>
       </c>
-      <c r="E3" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1">
-        <v>600</v>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>222</v>
+      </c>
+      <c r="J3" s="1">
+        <v>23.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>43681</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43866.457291550927</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43686</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F4" s="1">
-        <v>300</v>
-      </c>
-      <c r="G4" s="1">
-        <v>700</v>
+      <c r="B4" s="9">
+        <v>43683</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43806</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43808</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>356</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43690</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43721</v>
-      </c>
-      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43684</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43685</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11">
         <v>43727</v>
       </c>
-      <c r="E5" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F5" s="1">
-        <v>400</v>
-      </c>
-      <c r="G5" s="1">
-        <v>800</v>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>18.04</v>
+      </c>
+      <c r="I5" s="1">
+        <v>420</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>44</v>
       </c>
-      <c r="B6" s="2">
-        <v>43681</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43685.083333333336</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="9">
+        <v>43685</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
         <v>43686</v>
       </c>
-      <c r="E6" s="1">
-        <v>2300</v>
-      </c>
-      <c r="F6" s="1">
-        <v>400</v>
-      </c>
-      <c r="G6" s="1">
-        <v>900</v>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43686.026388888888</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="I6" s="1">
+        <v>670</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12.01</v>
       </c>
     </row>
   </sheetData>
